--- a/DDAf_2022_Tableau_annexe_Tab04.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -199,7 +199,7 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambie*</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -241,13 +241,13 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Congo*</t>
+    <t>République du Congo*</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
@@ -265,7 +265,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>Afrique Centrale</t>
@@ -334,7 +334,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
@@ -346,7 +346,7 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>UR of Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
@@ -448,7 +448,7 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>Libéria</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>MLI</t>
@@ -466,7 +466,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigéria*</t>
+    <t>Nigeria*</t>
   </si>
   <si>
     <t>SEN</t>
@@ -484,7 +484,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Afrique de l'Ouest</t>

--- a/DDAf_2022_Tableau_annexe_Tab04.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="200">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="199">
   <si>
     <t>Tableau 4 : Taux de croissance annuelle du PIB réel par habitant, 1990-2026</t>
   </si>
@@ -1384,11 +1381,9 @@
   <sheetData>
     <row r="1" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1430,132 +1425,132 @@
     </row>
     <row r="2" spans="1:40" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="N2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="Q2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="R2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="S2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="T2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="U2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="V2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="W2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="X2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="Y2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Z2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AB2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AC2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AD2" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>31</v>
       </c>
       <c r="AE2" s="8">
         <v>2018</v>
       </c>
       <c r="AF2" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AH2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AI2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AJ2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AK2" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AL2" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="AL2" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="AM2" s="8">
         <v>2026</v>
       </c>
       <c r="AN2" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="C3" s="12">
         <v>-6.6574672590663999</v>
@@ -1674,10 +1669,10 @@
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>43</v>
       </c>
       <c r="C4" s="15">
         <v>5.2133957193178304</v>
@@ -1796,10 +1791,10 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>44</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>45</v>
       </c>
       <c r="C5" s="19">
         <v>6.66267813733461</v>
@@ -1918,10 +1913,10 @@
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>47</v>
       </c>
       <c r="C6" s="19">
         <v>2.8948399283866602</v>
@@ -2040,10 +2035,10 @@
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>48</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>49</v>
       </c>
       <c r="C7" s="19">
         <v>1.9956070084022901</v>
@@ -2162,10 +2157,10 @@
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>51</v>
       </c>
       <c r="C8" s="19">
         <v>-0.41026642926969997</v>
@@ -2284,13 +2279,13 @@
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="D9" s="19">
         <v>2.2388130313346002</v>
@@ -2406,22 +2401,22 @@
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>56</v>
-      </c>
       <c r="C10" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="19">
         <v>0.83318366269540001</v>
@@ -2528,10 +2523,10 @@
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>57</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>58</v>
       </c>
       <c r="C11" s="15">
         <v>-3.2586487055140001</v>
@@ -2650,37 +2645,37 @@
     </row>
     <row r="12" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>60</v>
-      </c>
       <c r="C12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L12" s="22">
         <v>-1.7433546952032</v>
@@ -2772,10 +2767,10 @@
     </row>
     <row r="13" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="25" t="s">
         <v>61</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>62</v>
       </c>
       <c r="C13" s="26">
         <v>-1.3802071520225001</v>
@@ -2894,10 +2889,10 @@
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B14" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>64</v>
       </c>
       <c r="C14" s="19">
         <v>0.94944483837294003</v>
@@ -3016,10 +3011,10 @@
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>65</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>66</v>
       </c>
       <c r="C15" s="19">
         <v>-8.9832613575898996</v>
@@ -3138,10 +3133,10 @@
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>67</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>68</v>
       </c>
       <c r="C16" s="19">
         <v>-0.8389220975078</v>
@@ -3260,10 +3255,10 @@
     </row>
     <row r="17" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="28" t="s">
         <v>69</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>70</v>
       </c>
       <c r="C17" s="12">
         <v>-7.4424667698400004E-2</v>
@@ -3382,10 +3377,10 @@
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" s="28" t="s">
         <v>71</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>72</v>
       </c>
       <c r="C18" s="12">
         <v>-1.7214074648333999</v>
@@ -3504,10 +3499,10 @@
     </row>
     <row r="19" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>74</v>
       </c>
       <c r="C19" s="15">
         <v>-9.6652199624488002</v>
@@ -3626,10 +3621,10 @@
     </row>
     <row r="20" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>75</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>76</v>
       </c>
       <c r="C20" s="12">
         <v>-0.53770190405380003</v>
@@ -3748,10 +3743,10 @@
     </row>
     <row r="21" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>77</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>78</v>
       </c>
       <c r="C21" s="12">
         <v>2.29182542022353</v>
@@ -3870,10 +3865,10 @@
     </row>
     <row r="22" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>79</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>80</v>
       </c>
       <c r="C22" s="19">
         <v>-4.5312989803201003</v>
@@ -3992,10 +3987,10 @@
     </row>
     <row r="23" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C23" s="26">
         <v>-5.9993678569610998</v>
@@ -4114,10 +4109,10 @@
     </row>
     <row r="24" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="18" t="s">
         <v>82</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>83</v>
       </c>
       <c r="C24" s="19">
         <v>4.2431624563662904</v>
@@ -4236,13 +4231,13 @@
     </row>
     <row r="25" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>85</v>
-      </c>
       <c r="C25" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="19">
         <v>-7.0464446650412</v>
@@ -4358,19 +4353,19 @@
     </row>
     <row r="26" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="18" t="s">
-        <v>87</v>
-      </c>
       <c r="C26" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" s="19">
         <v>13.8382392724825</v>
@@ -4480,10 +4475,10 @@
     </row>
     <row r="27" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>89</v>
       </c>
       <c r="C27" s="19">
         <v>-0.8597493108384</v>
@@ -4582,30 +4577,30 @@
         <v>-0.53140634229869999</v>
       </c>
       <c r="AI27" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AJ27" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AK27" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AL27" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AM27" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AN27" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>90</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>91</v>
       </c>
       <c r="C28" s="19">
         <v>0.66841582287627999</v>
@@ -4724,10 +4719,10 @@
     </row>
     <row r="29" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>93</v>
       </c>
       <c r="C29" s="19">
         <v>0.19477662206543001</v>
@@ -4846,10 +4841,10 @@
     </row>
     <row r="30" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>94</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>95</v>
       </c>
       <c r="C30" s="19">
         <v>6.14275457165457</v>
@@ -4968,10 +4963,10 @@
     </row>
     <row r="31" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>96</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>97</v>
       </c>
       <c r="C31" s="19">
         <v>0.25501412228700998</v>
@@ -5090,10 +5085,10 @@
     </row>
     <row r="32" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="18" t="s">
         <v>98</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>99</v>
       </c>
       <c r="C32" s="19">
         <v>6.7193379317529196</v>
@@ -5212,76 +5207,76 @@
     </row>
     <row r="33" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="B33" s="18" t="s">
-        <v>101</v>
-      </c>
       <c r="C33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X33" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y33" s="19">
         <v>-1.499481224235</v>
@@ -5334,76 +5329,76 @@
     </row>
     <row r="34" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="14" t="s">
-        <v>103</v>
-      </c>
       <c r="C34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X34" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y34" s="15">
         <v>-53.760087056533997</v>
@@ -5456,10 +5451,10 @@
     </row>
     <row r="35" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="C35" s="19">
         <v>-2.5201003344497002</v>
@@ -5578,10 +5573,10 @@
     </row>
     <row r="36" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" s="18" t="s">
         <v>106</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>107</v>
       </c>
       <c r="C36" s="19">
         <v>3.6809421291034101</v>
@@ -5700,10 +5695,10 @@
     </row>
     <row r="37" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" s="18" t="s">
         <v>108</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="C37" s="19">
         <v>2.8685003670249798</v>
@@ -5822,10 +5817,10 @@
     </row>
     <row r="38" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C38" s="26">
         <v>0.68895055385359005</v>
@@ -5944,10 +5939,10 @@
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B39" s="29" t="s">
         <v>111</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>112</v>
       </c>
       <c r="C39" s="12">
         <v>-1.7540770594938999</v>
@@ -6066,10 +6061,10 @@
     </row>
     <row r="40" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="18" t="s">
         <v>113</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>114</v>
       </c>
       <c r="C40" s="19">
         <v>-0.1041053841277</v>
@@ -6188,10 +6183,10 @@
     </row>
     <row r="41" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="29" t="s">
         <v>115</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>116</v>
       </c>
       <c r="C41" s="12">
         <v>1.2016627465702101</v>
@@ -6310,13 +6305,13 @@
     </row>
     <row r="42" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B42" s="29" t="s">
-        <v>118</v>
-      </c>
       <c r="C42" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="12">
         <v>-2.5655750188945001</v>
@@ -6432,10 +6427,10 @@
     </row>
     <row r="43" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="18" t="s">
         <v>119</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>120</v>
       </c>
       <c r="C43" s="19">
         <v>2.1398687189839798</v>
@@ -6554,10 +6549,10 @@
     </row>
     <row r="44" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="18" t="s">
         <v>121</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>122</v>
       </c>
       <c r="C44" s="19">
         <v>4.70639475771031</v>
@@ -6676,10 +6671,10 @@
     </row>
     <row r="45" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C45" s="26">
         <v>0.18077114028569999</v>
@@ -6798,10 +6793,10 @@
     </row>
     <row r="46" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="B46" s="18" t="s">
         <v>124</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>125</v>
       </c>
       <c r="C46" s="19">
         <v>5.50734558849698</v>
@@ -6920,10 +6915,10 @@
     </row>
     <row r="47" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="18" t="s">
         <v>126</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>127</v>
       </c>
       <c r="C47" s="19">
         <v>-3.2112589145291999</v>
@@ -7042,10 +7037,10 @@
     </row>
     <row r="48" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="18" t="s">
         <v>128</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>129</v>
       </c>
       <c r="C48" s="19">
         <v>-1.3255580436687</v>
@@ -7164,10 +7159,10 @@
     </row>
     <row r="49" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="18" t="s">
         <v>130</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>131</v>
       </c>
       <c r="C49" s="19">
         <v>-4.5937322634158004</v>
@@ -7286,10 +7281,10 @@
     </row>
     <row r="50" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B50" s="18" t="s">
         <v>132</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>133</v>
       </c>
       <c r="C50" s="19">
         <v>1.2756315845939199</v>
@@ -7408,10 +7403,10 @@
     </row>
     <row r="51" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B51" s="14" t="s">
         <v>134</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>135</v>
       </c>
       <c r="C51" s="15">
         <v>0.65092630870295998</v>
@@ -7530,10 +7525,10 @@
     </row>
     <row r="52" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="B52" s="18" t="s">
         <v>136</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>137</v>
       </c>
       <c r="C52" s="19">
         <v>1.2890427390410499</v>
@@ -7652,10 +7647,10 @@
     </row>
     <row r="53" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" s="18" t="s">
         <v>138</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>139</v>
       </c>
       <c r="C53" s="19">
         <v>2.27604827439936</v>
@@ -7774,43 +7769,43 @@
     </row>
     <row r="54" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="B54" s="18" t="s">
-        <v>141</v>
-      </c>
       <c r="C54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M54" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N54" s="19">
         <v>-0.91095318146479998</v>
@@ -7896,10 +7891,10 @@
     </row>
     <row r="55" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="18" t="s">
         <v>142</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>143</v>
       </c>
       <c r="C55" s="19">
         <v>7.3311556663819299</v>
@@ -8018,10 +8013,10 @@
     </row>
     <row r="56" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="18" t="s">
         <v>144</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>145</v>
       </c>
       <c r="C56" s="19">
         <v>-4.3374729170402002</v>
@@ -8140,13 +8135,13 @@
     </row>
     <row r="57" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="B57" s="29" t="s">
-        <v>147</v>
-      </c>
       <c r="C57" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D57" s="12">
         <v>-3.0519620659334001</v>
@@ -8262,10 +8257,10 @@
     </row>
     <row r="58" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="B58" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>149</v>
       </c>
       <c r="C58" s="19">
         <v>-3.6158549308793</v>
@@ -8384,10 +8379,10 @@
     </row>
     <row r="59" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="18" t="s">
         <v>150</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>151</v>
       </c>
       <c r="C59" s="19">
         <v>7.4114336279829995E-2</v>
@@ -8506,10 +8501,10 @@
     </row>
     <row r="60" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>152</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>153</v>
       </c>
       <c r="C60" s="15">
         <v>3.2109461808353501</v>
@@ -8629,7 +8624,7 @@
     <row r="61" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C61" s="26">
         <v>-0.66170247073580002</v>
@@ -8749,7 +8744,7 @@
     <row r="62" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C62" s="32">
         <v>-0.59833587086759998</v>
@@ -8869,7 +8864,7 @@
     <row r="63" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C63" s="32">
         <v>1.96043403786143</v>
@@ -8989,7 +8984,7 @@
     <row r="64" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C64" s="36">
         <v>-1.2264002605032001</v>
@@ -9109,7 +9104,7 @@
     <row r="65" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C65" s="39">
         <v>5.0105381981164498</v>
@@ -9229,7 +9224,7 @@
     <row r="66" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C66" s="42">
         <v>1.76943778806727</v>
@@ -9349,7 +9344,7 @@
     <row r="67" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C67" s="39">
         <v>-0.39426040208730001</v>
@@ -9469,7 +9464,7 @@
     <row r="68" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C68" s="39">
         <v>0.25327265729498999</v>
@@ -9589,7 +9584,7 @@
     <row r="69" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C69" s="39">
         <v>2.2427029636326501</v>
@@ -9709,7 +9704,7 @@
     <row r="70" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C70" s="39">
         <v>-5.7408744192845997</v>
@@ -9829,7 +9824,7 @@
     <row r="71" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C71" s="39">
         <v>-0.66170247073580002</v>
@@ -9949,7 +9944,7 @@
     <row r="72" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C72" s="39">
         <v>-0.14245115147779999</v>
@@ -10069,7 +10064,7 @@
     <row r="73" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C73" s="39">
         <v>-2.0286629916686998</v>
@@ -10189,7 +10184,7 @@
     <row r="74" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C74" s="39">
         <v>0.3752896003308</v>
@@ -10309,7 +10304,7 @@
     <row r="75" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C75" s="42">
         <v>-4.6413939427638997</v>
@@ -10429,7 +10424,7 @@
     <row r="76" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C76" s="39">
         <v>6.2853655379435498</v>
@@ -10549,7 +10544,7 @@
     <row r="77" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C77" s="39">
         <v>-3.0868374450672</v>
@@ -10669,7 +10664,7 @@
     <row r="78" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C78" s="39">
         <v>2.42115412321444</v>
@@ -10789,7 +10784,7 @@
     <row r="79" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C79" s="42">
         <v>2.22954305015995</v>
@@ -10909,7 +10904,7 @@
     <row r="80" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C80" s="39">
         <v>-1.0013397771239001</v>
@@ -11029,7 +11024,7 @@
     <row r="81" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C81" s="39">
         <v>10.9726466346454</v>
@@ -11149,7 +11144,7 @@
     <row r="82" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C82" s="39">
         <v>-0.39723226004360002</v>
@@ -11269,7 +11264,7 @@
     <row r="83" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C83" s="42">
         <v>1.41363699521423</v>
@@ -11389,7 +11384,7 @@
     <row r="84" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C84" s="39">
         <v>-1.6771730515754999</v>
@@ -11509,7 +11504,7 @@
     <row r="85" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C85" s="39">
         <v>7.0015803406323496</v>
@@ -11629,7 +11624,7 @@
     <row r="86" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C86" s="39">
         <v>-0.73577933200599999</v>
@@ -11749,7 +11744,7 @@
     <row r="87" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C87" s="39">
         <v>5.63999057476153</v>
@@ -11869,7 +11864,7 @@
     <row r="88" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C88" s="39">
         <v>1.7714386959561499</v>
@@ -11989,7 +11984,7 @@
     <row r="89" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C89" s="39">
         <v>0.64714500089822002</v>
@@ -12109,7 +12104,7 @@
     <row r="90" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C90" s="42">
         <v>2.5689529098086998</v>
@@ -12229,7 +12224,7 @@
     <row r="91" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C91" s="39">
         <v>-1.4932636555595</v>
@@ -12349,7 +12344,7 @@
     <row r="92" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C92" s="39">
         <v>2.3211832029539798</v>
@@ -12469,7 +12464,7 @@
     <row r="93" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C93" s="39">
         <v>4.3667187220400896</v>
@@ -12589,7 +12584,7 @@
     <row r="94" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C94" s="39">
         <v>2.3306494594570499</v>
@@ -12709,7 +12704,7 @@
     <row r="95" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C95" s="39">
         <v>0.77692894236249999</v>
@@ -12829,7 +12824,7 @@
     <row r="96" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C96" s="42">
         <v>1.72937388625824</v>
@@ -12949,7 +12944,7 @@
     <row r="97" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C97" s="39">
         <v>-1.3002939992583999</v>
@@ -13069,7 +13064,7 @@
     <row r="98" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C98" s="39">
         <v>7.69496206607411</v>
@@ -13189,7 +13184,7 @@
     <row r="99" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C99" s="42">
         <v>-1.4333762183403</v>
@@ -13350,7 +13345,7 @@
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -13394,7 +13389,7 @@
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -13438,7 +13433,7 @@
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -13482,7 +13477,7 @@
     </row>
     <row r="104" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -13526,7 +13521,7 @@
     </row>
     <row r="105" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -13652,7 +13647,7 @@
     </row>
     <row r="108" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -13736,7 +13731,7 @@
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -13779,7 +13774,7 @@
     </row>
     <row r="111" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -13863,7 +13858,7 @@
     </row>
     <row r="113" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -13906,7 +13901,7 @@
     </row>
     <row r="114" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
@@ -13990,7 +13985,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B108" r:id="rId1"/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>

--- a/DDAf_2022_Tableau_annexe_Tab04.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="200">
   <si>
     <t>Tableau 4 : Taux de croissance annuelle du PIB réel par habitant, 1990-2026</t>
   </si>
@@ -574,19 +574,22 @@
     <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Afrique, petits Etats insulaires en développement</t>
-  </si>
-  <si>
-    <t>RDM, petits Etats insulaires en développement</t>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
     <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Afrique, Etats fragiles</t>
-  </si>
-  <si>
-    <t>RDM, Etats fragiles</t>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
     <t>États extrêmement fragiles</t>
@@ -601,10 +604,10 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
+    <t>Jusqu'à 2020 les chiffres sont des estimations. A partir de 2021 il s'agit de projections.</t>
+  </si>
+  <si>
     <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
-  </si>
-  <si>
-    <t>Jusqu'à 2020 les chiffres sont des estimations. A partir de 2021 il s'agit de projections.</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
@@ -12347,118 +12350,118 @@
         <v>182</v>
       </c>
       <c r="C92" s="39">
-        <v>2.3211832029539798</v>
+        <v>2.3105240496967001</v>
       </c>
       <c r="D92" s="39">
-        <v>1.4169331989842</v>
+        <v>1.4183240402913699</v>
       </c>
       <c r="E92" s="39">
-        <v>2.1738933031888199</v>
+        <v>2.1771278138383798</v>
       </c>
       <c r="F92" s="39">
-        <v>0.90862996415945996</v>
+        <v>0.91245896819386996</v>
       </c>
       <c r="G92" s="39">
-        <v>1.5545269170148499</v>
+        <v>1.54823018195442</v>
       </c>
       <c r="H92" s="39">
-        <v>2.81376073976607</v>
+        <v>2.8192483752851798</v>
       </c>
       <c r="I92" s="39">
-        <v>2.4462191859901998</v>
+        <v>2.4491326430463398</v>
       </c>
       <c r="J92" s="39">
-        <v>2.9660923665421</v>
+        <v>2.9662074154528102</v>
       </c>
       <c r="K92" s="39">
-        <v>2.79614563960439</v>
+        <v>2.8003616459924201</v>
       </c>
       <c r="L92" s="39">
-        <v>3.21007082257599</v>
+        <v>3.2148900909643499</v>
       </c>
       <c r="M92" s="39">
-        <v>4.6232573697097603</v>
+        <v>4.6240635079439301</v>
       </c>
       <c r="N92" s="39">
-        <v>3.87276746306941</v>
+        <v>3.88146911738419</v>
       </c>
       <c r="O92" s="39">
-        <v>2.7067254629444202</v>
+        <v>2.7152546284932</v>
       </c>
       <c r="P92" s="39">
-        <v>4.3318546128815898</v>
+        <v>4.3339132177882203</v>
       </c>
       <c r="Q92" s="39">
-        <v>4.9699129807341498</v>
+        <v>4.9726489125336197</v>
       </c>
       <c r="R92" s="39">
-        <v>5.6884493983564797</v>
+        <v>5.6906671935977604</v>
       </c>
       <c r="S92" s="39">
-        <v>5.4959120623753002</v>
+        <v>5.4955800276927702</v>
       </c>
       <c r="T92" s="39">
-        <v>6.2623522173408199</v>
+        <v>6.2665835159311101</v>
       </c>
       <c r="U92" s="39">
-        <v>4.5392134992573396</v>
+        <v>4.5402480762749802</v>
       </c>
       <c r="V92" s="39">
-        <v>4.13284391854212</v>
+        <v>4.1354464679516099</v>
       </c>
       <c r="W92" s="39">
-        <v>4.2401304932105299</v>
+        <v>4.2440269860519102</v>
       </c>
       <c r="X92" s="39">
-        <v>2.85104321235525</v>
+        <v>2.8528364810270301</v>
       </c>
       <c r="Y92" s="39">
-        <v>4.9234958995075599</v>
+        <v>4.9279413468751203</v>
       </c>
       <c r="Z92" s="39">
-        <v>4.66030445297993</v>
+        <v>4.6647840654849801</v>
       </c>
       <c r="AA92" s="39">
-        <v>4.2350302150636203</v>
+        <v>4.2376608417471697</v>
       </c>
       <c r="AB92" s="39">
-        <v>2.6854579350946799</v>
+        <v>2.6886666371527101</v>
       </c>
       <c r="AC92" s="39">
-        <v>3.84100801327362</v>
+        <v>3.8424090093226502</v>
       </c>
       <c r="AD92" s="39">
-        <v>4.71808609652334</v>
+        <v>4.7190299778706803</v>
       </c>
       <c r="AE92" s="39">
-        <v>5.2443511390271702</v>
+        <v>5.2474195693891197</v>
       </c>
       <c r="AF92" s="39">
-        <v>5.4561825466059899</v>
+        <v>5.4587398539591003</v>
       </c>
       <c r="AG92" s="39">
-        <v>0.29503282017403998</v>
+        <v>0.30016596020511999</v>
       </c>
       <c r="AH92" s="39">
-        <v>-0.98834707268879995</v>
+        <v>-0.98792401984339995</v>
       </c>
       <c r="AI92" s="39">
-        <v>3.6233973028714002</v>
+        <v>3.6253665818926502</v>
       </c>
       <c r="AJ92" s="39">
-        <v>4.8591940446064701</v>
+        <v>4.8612033987505603</v>
       </c>
       <c r="AK92" s="39">
-        <v>4.9016959545555796</v>
+        <v>4.9039051695445997</v>
       </c>
       <c r="AL92" s="39">
-        <v>4.9231499054188399</v>
+        <v>4.9257734195135203</v>
       </c>
       <c r="AM92" s="39">
-        <v>4.9222447060306704</v>
+        <v>4.9248400103971504</v>
       </c>
       <c r="AN92" s="40">
-        <v>4.6446787250939296</v>
+        <v>4.64695926937602</v>
       </c>
     </row>
     <row r="93" spans="1:40" x14ac:dyDescent="0.35">
@@ -12605,7 +12608,7 @@
         <v>4.0169092369050103</v>
       </c>
       <c r="I94" s="39">
-        <v>4.5143910419899003</v>
+        <v>4.5143910419898701</v>
       </c>
       <c r="J94" s="39">
         <v>4.64353192032425</v>
@@ -12617,7 +12620,7 @@
         <v>3.81067862375824</v>
       </c>
       <c r="M94" s="39">
-        <v>4.8807612229322404</v>
+        <v>4.8807612229321897</v>
       </c>
       <c r="N94" s="39">
         <v>-0.70811798173460005</v>
@@ -12632,7 +12635,7 @@
         <v>5.3022573986010402</v>
       </c>
       <c r="R94" s="39">
-        <v>5.07254193602434</v>
+        <v>5.0725419360243098</v>
       </c>
       <c r="S94" s="39">
         <v>6.6302105868379497</v>
@@ -12662,7 +12665,7 @@
         <v>3.09227223628579</v>
       </c>
       <c r="AB94" s="39">
-        <v>2.3138409565529101</v>
+        <v>2.3138409565528901</v>
       </c>
       <c r="AC94" s="39">
         <v>2.2839808276440401</v>
@@ -12692,10 +12695,10 @@
         <v>2.2834430118431799</v>
       </c>
       <c r="AL94" s="39">
-        <v>2.17053406316509</v>
+        <v>2.1705340631650798</v>
       </c>
       <c r="AM94" s="39">
-        <v>2.1794418234583799</v>
+        <v>2.1794418234583901</v>
       </c>
       <c r="AN94" s="40">
         <v>2.7974396675892699</v>
@@ -12824,7 +12827,7 @@
     <row r="96" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C96" s="42">
         <v>1.72937388625824</v>
@@ -12944,7 +12947,7 @@
     <row r="97" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C97" s="39">
         <v>-1.3002939992583999</v>
@@ -13064,7 +13067,7 @@
     <row r="98" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C98" s="39">
         <v>7.69496206607411</v>
@@ -13184,7 +13187,7 @@
     <row r="99" spans="1:40" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C99" s="42">
         <v>-1.4333762183403</v>
@@ -13345,7 +13348,7 @@
     </row>
     <row r="101" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -13389,7 +13392,7 @@
     </row>
     <row r="102" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -13433,7 +13436,7 @@
     </row>
     <row r="103" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -13477,7 +13480,7 @@
     </row>
     <row r="104" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -13521,7 +13524,7 @@
     </row>
     <row r="105" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -13647,7 +13650,7 @@
     </row>
     <row r="108" spans="1:40" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -13731,7 +13734,7 @@
     </row>
     <row r="110" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -13774,7 +13777,7 @@
     </row>
     <row r="111" spans="1:40" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -13858,7 +13861,7 @@
     </row>
     <row r="113" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -13901,7 +13904,7 @@
     </row>
     <row r="114" spans="2:40" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>

--- a/DDAf_2022_Tableau_annexe_Tab04.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab04.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab04.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -562,7 +562,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>

--- a/DDAf_2022_Tableau_annexe_Tab04.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab04" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="200">
+  <si>
+    <t>Tableau 4 : Taux de croissance annuelle du PIB réel par habitant, 1990-2027</t>
+  </si>
   <si>
     <t>ISO3 Code</t>
   </si>
@@ -607,7 +610,7 @@
     <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -1382,8 +1385,8 @@
     <row r="1" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
-      <c r="C1" s="3" t="e">
-        <v>#N/A</v>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -1426,118 +1429,118 @@
     </row>
     <row r="2" spans="1:41" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="U2" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y2" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Z2" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC2" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE2" s="8">
         <v>2018</v>
       </c>
       <c r="AF2" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AH2" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AI2" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ2" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK2" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL2" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AM2" s="8">
         <v>2026</v>
@@ -1546,15 +1549,15 @@
         <v>2027</v>
       </c>
       <c r="AO2" s="9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="12">
         <v>-6.6574672590663999</v>
@@ -1676,10 +1679,10 @@
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" s="15">
         <v>5.2133957192995997</v>
@@ -1801,10 +1804,10 @@
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C5" s="19">
         <v>6.66267813733461</v>
@@ -1926,10 +1929,10 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="19">
         <v>2.8948399285670101</v>
@@ -2051,10 +2054,10 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" s="19">
         <v>1.9956070084022901</v>
@@ -2176,10 +2179,10 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="19">
         <v>-0.41026642926969997</v>
@@ -2301,13 +2304,13 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D9" s="19">
         <v>2.2388130313346002</v>
@@ -2426,22 +2429,22 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>52</v>
-      </c>
       <c r="D10" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="19">
         <v>0.83318399741599003</v>
@@ -2551,10 +2554,10 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="15">
         <v>-3.2586487055140001</v>
@@ -2676,37 +2679,37 @@
     </row>
     <row r="12" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E12" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K12" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L12" s="22">
         <v>-1.7433546952032</v>
@@ -2801,10 +2804,10 @@
     </row>
     <row r="13" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C13" s="26">
         <v>-1.2089807093478</v>
@@ -2926,10 +2929,10 @@
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C14" s="19">
         <v>0.94944483837294003</v>
@@ -3051,10 +3054,10 @@
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" s="19">
         <v>-8.9832613587661001</v>
@@ -3176,10 +3179,10 @@
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C16" s="19">
         <v>-0.8389220975078</v>
@@ -3301,10 +3304,10 @@
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C17" s="12">
         <v>-7.4424667698400004E-2</v>
@@ -3426,10 +3429,10 @@
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" s="12">
         <v>-1.7214074648333999</v>
@@ -3551,10 +3554,10 @@
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" s="15">
         <v>-9.6652199624488002</v>
@@ -3676,10 +3679,10 @@
     </row>
     <row r="20" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C20" s="12">
         <v>-0.53770190405380003</v>
@@ -3801,10 +3804,10 @@
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C21" s="12">
         <v>2.29182542022353</v>
@@ -3926,10 +3929,10 @@
     </row>
     <row r="22" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C22" s="19">
         <v>-4.5312989803201003</v>
@@ -4051,10 +4054,10 @@
     </row>
     <row r="23" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="25" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C23" s="26">
         <v>-6.0582605357660002</v>
@@ -4176,10 +4179,10 @@
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C24" s="19">
         <v>4.2431624563662904</v>
@@ -4301,13 +4304,13 @@
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D25" s="19">
         <v>-7.0464446650412</v>
@@ -4426,19 +4429,19 @@
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F26" s="19">
         <v>13.8382392724825</v>
@@ -4551,10 +4554,10 @@
     </row>
     <row r="27" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C27" s="19">
         <v>-0.8597493108384</v>
@@ -4676,10 +4679,10 @@
     </row>
     <row r="28" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="19">
         <v>0.66841582287627999</v>
@@ -4801,10 +4804,10 @@
     </row>
     <row r="29" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29" s="19">
         <v>0.19477662206543001</v>
@@ -4926,10 +4929,10 @@
     </row>
     <row r="30" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C30" s="19">
         <v>6.14275457165457</v>
@@ -5051,10 +5054,10 @@
     </row>
     <row r="31" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C31" s="19">
         <v>0.25501412228700998</v>
@@ -5176,10 +5179,10 @@
     </row>
     <row r="32" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C32" s="19">
         <v>6.7193379329306699</v>
@@ -5301,76 +5304,76 @@
     </row>
     <row r="33" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X33" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y33" s="19">
         <v>-1.4994812231726999</v>
@@ -5426,76 +5429,76 @@
     </row>
     <row r="34" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="V34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="W34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="X34" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Y34" s="15">
         <v>-53.761365334935</v>
@@ -5551,10 +5554,10 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C35" s="19">
         <v>-2.5201003344497002</v>
@@ -5676,10 +5679,10 @@
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C36" s="19">
         <v>3.6809421291034101</v>
@@ -5801,10 +5804,10 @@
     </row>
     <row r="37" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C37" s="19">
         <v>2.8685003670249798</v>
@@ -5926,10 +5929,10 @@
     </row>
     <row r="38" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38" s="26">
         <v>0.68885549619639996</v>
@@ -6051,10 +6054,10 @@
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C39" s="12">
         <v>-1.7540770594938999</v>
@@ -6176,10 +6179,10 @@
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C40" s="19">
         <v>-0.1041053841277</v>
@@ -6301,10 +6304,10 @@
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C41" s="12">
         <v>1.2016627465702101</v>
@@ -6426,13 +6429,13 @@
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D42" s="12">
         <v>-2.5655750188945001</v>
@@ -6551,10 +6554,10 @@
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C43" s="19">
         <v>2.1398687189839798</v>
@@ -6676,10 +6679,10 @@
     </row>
     <row r="44" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C44" s="19">
         <v>4.70639475803236</v>
@@ -6781,30 +6784,30 @@
         <v>1.3010892223127399</v>
       </c>
       <c r="AJ44" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AK44" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AL44" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AM44" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AN44" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AO44" s="20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="45" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" s="25" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C45" s="26">
         <v>0.19202992758557999</v>
@@ -6926,10 +6929,10 @@
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C46" s="19">
         <v>5.50734558849698</v>
@@ -7051,10 +7054,10 @@
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C47" s="19">
         <v>-3.2112589145291999</v>
@@ -7176,10 +7179,10 @@
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C48" s="19">
         <v>-1.3255580436687</v>
@@ -7301,10 +7304,10 @@
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C49" s="19">
         <v>-4.5937322634158004</v>
@@ -7426,10 +7429,10 @@
     </row>
     <row r="50" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C50" s="19">
         <v>1.2756315845939199</v>
@@ -7551,10 +7554,10 @@
     </row>
     <row r="51" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C51" s="15">
         <v>0.65092630870295998</v>
@@ -7676,10 +7679,10 @@
     </row>
     <row r="52" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C52" s="19">
         <v>1.2890427390410499</v>
@@ -7801,10 +7804,10 @@
     </row>
     <row r="53" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C53" s="19">
         <v>2.27604827439936</v>
@@ -7926,43 +7929,43 @@
     </row>
     <row r="54" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C54" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E54" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F54" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G54" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H54" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I54" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J54" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K54" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L54" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M54" s="19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N54" s="19">
         <v>-0.91095317772990003</v>
@@ -8051,10 +8054,10 @@
     </row>
     <row r="55" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C55" s="19">
         <v>7.3311556663819299</v>
@@ -8176,10 +8179,10 @@
     </row>
     <row r="56" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C56" s="19">
         <v>-4.3374729170402002</v>
@@ -8301,13 +8304,13 @@
     </row>
     <row r="57" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B57" s="29" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D57" s="12">
         <v>-3.0519620659334001</v>
@@ -8426,10 +8429,10 @@
     </row>
     <row r="58" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C58" s="19">
         <v>-3.6158549308793</v>
@@ -8551,10 +8554,10 @@
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C59" s="19">
         <v>7.4114336279829995E-2</v>
@@ -8676,10 +8679,10 @@
     </row>
     <row r="60" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C60" s="15">
         <v>3.2109461808353501</v>
@@ -8802,7 +8805,7 @@
     <row r="61" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="24"/>
       <c r="B61" s="25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C61" s="26">
         <v>-0.66170247073580002</v>
@@ -8925,7 +8928,7 @@
     <row r="62" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="30"/>
       <c r="B62" s="31" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C62" s="32">
         <v>-0.59597931834329998</v>
@@ -9048,7 +9051,7 @@
     <row r="63" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="30"/>
       <c r="B63" s="31" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C63" s="32">
         <v>1.86986631577551</v>
@@ -9057,7 +9060,7 @@
         <v>1.08739283291801</v>
       </c>
       <c r="E63" s="32">
-        <v>0.91131036633482998</v>
+        <v>0.9113103663348</v>
       </c>
       <c r="F63" s="32">
         <v>0.68544433276356997</v>
@@ -9171,7 +9174,7 @@
     <row r="64" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A64" s="34"/>
       <c r="B64" s="35" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C64" s="36">
         <v>-1.6466323126486</v>
@@ -9294,7 +9297,7 @@
     <row r="65" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A65" s="34"/>
       <c r="B65" s="38" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C65" s="39">
         <v>4.5861535470740202</v>
@@ -9417,7 +9420,7 @@
     <row r="66" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="34"/>
       <c r="B66" s="41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C66" s="42">
         <v>1.6820679801493099</v>
@@ -9540,7 +9543,7 @@
     <row r="67" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A67" s="34"/>
       <c r="B67" s="38" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C67" s="39">
         <v>-0.38211707344430001</v>
@@ -9663,7 +9666,7 @@
     <row r="68" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A68" s="34"/>
       <c r="B68" s="38" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C68" s="39">
         <v>0.26406379663922003</v>
@@ -9786,7 +9789,7 @@
     <row r="69" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A69" s="34"/>
       <c r="B69" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C69" s="39">
         <v>2.2427029636326501</v>
@@ -9909,7 +9912,7 @@
     <row r="70" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A70" s="34"/>
       <c r="B70" s="38" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C70" s="39">
         <v>-5.7877696448911999</v>
@@ -10032,7 +10035,7 @@
     <row r="71" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A71" s="34"/>
       <c r="B71" s="38" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C71" s="39">
         <v>-0.66170247073580002</v>
@@ -10155,7 +10158,7 @@
     <row r="72" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A72" s="34"/>
       <c r="B72" s="38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C72" s="39">
         <v>-0.14245115147779999</v>
@@ -10278,7 +10281,7 @@
     <row r="73" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A73" s="34"/>
       <c r="B73" s="38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C73" s="39">
         <v>-1.9530786040360999</v>
@@ -10401,7 +10404,7 @@
     <row r="74" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A74" s="34"/>
       <c r="B74" s="38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C74" s="39">
         <v>0.39270104794416</v>
@@ -10524,7 +10527,7 @@
     <row r="75" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="34"/>
       <c r="B75" s="41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C75" s="42">
         <v>-4.6413939427638997</v>
@@ -10647,7 +10650,7 @@
     <row r="76" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A76" s="34"/>
       <c r="B76" s="38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C76" s="39">
         <v>6.2853703303738397</v>
@@ -10770,7 +10773,7 @@
     <row r="77" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A77" s="34"/>
       <c r="B77" s="38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C77" s="39">
         <v>-3.9440020960139002</v>
@@ -10893,7 +10896,7 @@
     <row r="78" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A78" s="34"/>
       <c r="B78" s="38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C78" s="39">
         <v>2.4214260247257799</v>
@@ -11016,7 +11019,7 @@
     <row r="79" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="34"/>
       <c r="B79" s="41" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C79" s="42">
         <v>2.2203278257891799</v>
@@ -11139,7 +11142,7 @@
     <row r="80" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A80" s="34"/>
       <c r="B80" s="38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C80" s="39">
         <v>-1.0013397771239001</v>
@@ -11262,7 +11265,7 @@
     <row r="81" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A81" s="34"/>
       <c r="B81" s="38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C81" s="39">
         <v>10.5088255058635</v>
@@ -11385,7 +11388,7 @@
     <row r="82" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A82" s="34"/>
       <c r="B82" s="38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C82" s="39">
         <v>-0.39513512928729999</v>
@@ -11508,10 +11511,10 @@
     <row r="83" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="34"/>
       <c r="B83" s="41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C83" s="42">
-        <v>1.4080418615361601</v>
+        <v>1.40804186153621</v>
       </c>
       <c r="D83" s="42">
         <v>0.64957173120240996</v>
@@ -11631,7 +11634,7 @@
     <row r="84" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A84" s="34"/>
       <c r="B84" s="38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C84" s="39">
         <v>-1.6771730515754999</v>
@@ -11754,7 +11757,7 @@
     <row r="85" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A85" s="34"/>
       <c r="B85" s="38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C85" s="39">
         <v>7.0015803406323496</v>
@@ -11877,7 +11880,7 @@
     <row r="86" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A86" s="34"/>
       <c r="B86" s="38" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C86" s="39">
         <v>-0.74361386045040001</v>
@@ -12000,7 +12003,7 @@
     <row r="87" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A87" s="34"/>
       <c r="B87" s="38" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C87" s="39">
         <v>4.9653305055026502</v>
@@ -12123,7 +12126,7 @@
     <row r="88" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A88" s="34"/>
       <c r="B88" s="38" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C88" s="39">
         <v>1.81461689739902</v>
@@ -12246,7 +12249,7 @@
     <row r="89" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A89" s="34"/>
       <c r="B89" s="38" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C89" s="39">
         <v>0.64647363334119001</v>
@@ -12297,7 +12300,7 @@
         <v>6.8726158971314302</v>
       </c>
       <c r="S89" s="39">
-        <v>8.1476000294689293</v>
+        <v>8.1476000294689506</v>
       </c>
       <c r="T89" s="39">
         <v>8.8781512713189894</v>
@@ -12312,10 +12315,10 @@
         <v>7.4543190831812298</v>
       </c>
       <c r="X89" s="39">
-        <v>6.4290366960748102</v>
+        <v>6.4290366960748502</v>
       </c>
       <c r="Y89" s="39">
-        <v>4.9936930618246702</v>
+        <v>4.9936930618246196</v>
       </c>
       <c r="Z89" s="39">
         <v>4.7824459087209901</v>
@@ -12324,7 +12327,7 @@
         <v>3.90111811703721</v>
       </c>
       <c r="AB89" s="39">
-        <v>3.3934331192915401</v>
+        <v>3.3934331192915299</v>
       </c>
       <c r="AC89" s="39">
         <v>3.42368147398314</v>
@@ -12369,7 +12372,7 @@
     <row r="90" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="34"/>
       <c r="B90" s="41" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C90" s="42">
         <v>2.5591805480063701</v>
@@ -12492,7 +12495,7 @@
     <row r="91" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A91" s="34"/>
       <c r="B91" s="38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C91" s="39">
         <v>-1.4932636556876999</v>
@@ -12615,7 +12618,7 @@
     <row r="92" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A92" s="34"/>
       <c r="B92" s="38" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C92" s="39">
         <v>2.3105444018724199</v>
@@ -12738,7 +12741,7 @@
     <row r="93" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A93" s="34"/>
       <c r="B93" s="38" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C93" s="39">
         <v>4.3661375893499903</v>
@@ -12861,7 +12864,7 @@
     <row r="94" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A94" s="34"/>
       <c r="B94" s="38" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C94" s="39">
         <v>2.3311723558572202</v>
@@ -12984,7 +12987,7 @@
     <row r="95" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A95" s="34"/>
       <c r="B95" s="38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C95" s="39">
         <v>0.84419306689262996</v>
@@ -13107,7 +13110,7 @@
     <row r="96" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="34"/>
       <c r="B96" s="41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C96" s="42">
         <v>1.7293738947788699</v>
@@ -13230,7 +13233,7 @@
     <row r="97" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A97" s="34"/>
       <c r="B97" s="38" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C97" s="39">
         <v>-1.3284294046466001</v>
@@ -13353,7 +13356,7 @@
     <row r="98" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A98" s="34"/>
       <c r="B98" s="38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C98" s="39">
         <v>6.3801588688384197</v>
@@ -13476,7 +13479,7 @@
     <row r="99" spans="1:41" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="34"/>
       <c r="B99" s="41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C99" s="42">
         <v>-1.4333762183403</v>
@@ -13641,7 +13644,7 @@
     </row>
     <row r="101" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A101" s="47" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="49"/>
@@ -13686,7 +13689,7 @@
     </row>
     <row r="102" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A102" s="47" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B102" s="48"/>
       <c r="C102" s="49"/>
@@ -13731,7 +13734,7 @@
     </row>
     <row r="103" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A103" s="47" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B103" s="48"/>
       <c r="C103" s="49"/>
@@ -13776,7 +13779,7 @@
     </row>
     <row r="104" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A104" s="47" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="49"/>
@@ -13821,7 +13824,7 @@
     </row>
     <row r="105" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A105" s="47" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B105" s="48"/>
       <c r="C105" s="49"/>
@@ -13950,7 +13953,7 @@
     </row>
     <row r="108" spans="1:41" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C108" s="49"/>
       <c r="D108" s="49"/>
@@ -14036,7 +14039,7 @@
     </row>
     <row r="110" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C110" s="49"/>
       <c r="D110" s="49"/>
@@ -14080,7 +14083,7 @@
     </row>
     <row r="111" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C111" s="49"/>
       <c r="D111" s="49"/>
@@ -14166,7 +14169,7 @@
     </row>
     <row r="113" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C113" s="49"/>
       <c r="D113" s="49"/>
@@ -14210,7 +14213,7 @@
     </row>
     <row r="114" spans="2:41" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C114" s="49"/>
       <c r="D114" s="49"/>
@@ -14295,7 +14298,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
